--- a/data/recursos_por_instancia_e_resposta.xlsx
+++ b/data/recursos_por_instancia_e_resposta.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauld\OneDrive\Documentos\[documentos]Raul\negativas-acesso-informacao-Executivo-feredal\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1685D3E-D7DB-47D4-B1BB-876D14DEE2A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="98">
   <si>
     <t>governo_que_registrou</t>
   </si>
@@ -294,16 +305,30 @@
   </si>
   <si>
     <t>Pedido de Revisão</t>
+  </si>
+  <si>
+    <t>Soma de perc</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -315,7 +340,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -330,22 +355,2417 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[recursos_por_instancia_e_resposta.xlsx]Sheet1!Tabela dinâmica1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bolsonaro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Não conhecimento</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perda de objeto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perda de objeto parcial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Indeferido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Parcialmente deferido</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deferido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F43-49CD-A124-E49A8657A810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dilma II</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Não conhecimento</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perda de objeto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perda de objeto parcial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Indeferido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Parcialmente deferido</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deferido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45689999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F43-49CD-A124-E49A8657A810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$5:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Não conhecimento</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Perda de objeto</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perda de objeto parcial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Indeferido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Parcialmente deferido</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deferido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.6699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F43-49CD-A124-E49A8657A810}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="6702543"/>
+        <c:axId val="10203951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="6702543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10203951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10203951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6702543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE81737-F21B-4D4B-B046-D5C5EF0EE7DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Raul Durlo" refreshedDate="44044.789279976852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="72" xr:uid="{8A78FE47-5A06-4EDB-8C0E-3935C818BFC2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:G73" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="governo_que_registrou" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Dilma II"/>
+        <s v="Temer"/>
+        <s v="Bolsonaro"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="TipoResposta" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Deferido"/>
+        <s v="Parcialmente deferido"/>
+        <s v="Indeferido"/>
+        <s v="Não conhecimento"/>
+        <s v="Perda de objeto"/>
+        <s v="Perda de objeto parcial"/>
+        <s v="Acolhimento"/>
+        <s v="NA"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Instancia" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Primeira Instância"/>
+        <s v="Segunda Instância"/>
+        <s v="CGU"/>
+        <s v="CMRI"/>
+        <s v="Pedido de Revisão"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="qt_tipo_repostas_instancia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3923"/>
+    </cacheField>
+    <cacheField name="qt_respostas_instancia" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="7926"/>
+    </cacheField>
+    <cacheField name="perc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1E-3" maxValue="0.87270000000000003"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="927"/>
+    <n v="2029"/>
+    <n v="0.45689999999999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="146"/>
+    <n v="434"/>
+    <n v="0.33639999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="130"/>
+    <n v="478"/>
+    <n v="0.27200000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="117"/>
+    <n v="2029"/>
+    <n v="5.7700000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="30"/>
+    <n v="434"/>
+    <n v="6.9099999999999995E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="33"/>
+    <n v="478"/>
+    <n v="6.9000000000000006E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="723"/>
+    <n v="2029"/>
+    <n v="0.35630000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="177"/>
+    <n v="434"/>
+    <n v="0.4078"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="54"/>
+    <n v="478"/>
+    <n v="0.113"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="55"/>
+    <n v="9.0899999999999995E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="201"/>
+    <n v="2029"/>
+    <n v="9.9099999999999994E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="58"/>
+    <n v="434"/>
+    <n v="0.1336"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="145"/>
+    <n v="478"/>
+    <n v="0.30330000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="48"/>
+    <n v="55"/>
+    <n v="0.87270000000000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="61"/>
+    <n v="2029"/>
+    <n v="3.0099999999999998E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="23"/>
+    <n v="434"/>
+    <n v="5.2999999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="478"/>
+    <n v="0.2092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="55"/>
+    <n v="3.6400000000000002E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="478"/>
+    <n v="3.3500000000000002E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3923"/>
+    <n v="7646"/>
+    <n v="0.5131"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="739"/>
+    <n v="1992"/>
+    <n v="0.371"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="96"/>
+    <n v="1449"/>
+    <n v="6.6299999999999998E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="334"/>
+    <n v="6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="28"/>
+    <n v="67"/>
+    <n v="0.41789999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="466"/>
+    <n v="7646"/>
+    <n v="6.0900000000000003E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="103"/>
+    <n v="1992"/>
+    <n v="5.1700000000000003E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="21"/>
+    <n v="1449"/>
+    <n v="1.4500000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="334"/>
+    <n v="6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2309"/>
+    <n v="7646"/>
+    <n v="0.30199999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="782"/>
+    <n v="1992"/>
+    <n v="0.3926"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="198"/>
+    <n v="1449"/>
+    <n v="0.1366"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="97"/>
+    <n v="334"/>
+    <n v="0.29039999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="39"/>
+    <n v="67"/>
+    <n v="0.58209999999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="739"/>
+    <n v="7646"/>
+    <n v="9.6699999999999994E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="265"/>
+    <n v="1992"/>
+    <n v="0.13300000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="379"/>
+    <n v="1449"/>
+    <n v="0.2616"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="223"/>
+    <n v="334"/>
+    <n v="0.66769999999999996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="198"/>
+    <n v="7646"/>
+    <n v="2.5899999999999999E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="101"/>
+    <n v="1992"/>
+    <n v="5.0700000000000002E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="393"/>
+    <n v="1449"/>
+    <n v="0.2712"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="334"/>
+    <n v="2.4E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="7646"/>
+    <n v="1.4E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1992"/>
+    <n v="1E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="44"/>
+    <n v="1449"/>
+    <n v="3.04E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="318"/>
+    <n v="1449"/>
+    <n v="0.2195"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="334"/>
+    <n v="6.0000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3481"/>
+    <n v="7926"/>
+    <n v="0.43919999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="636"/>
+    <n v="1972"/>
+    <n v="0.32250000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="142"/>
+    <n v="1121"/>
+    <n v="0.12670000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="49"/>
+    <n v="322"/>
+    <n v="0.1522"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="465"/>
+    <n v="7926"/>
+    <n v="5.8700000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="104"/>
+    <n v="1972"/>
+    <n v="5.2699999999999997E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="1121"/>
+    <n v="6.7799999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="48"/>
+    <n v="8.3299999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2763"/>
+    <n v="7926"/>
+    <n v="0.34860000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="872"/>
+    <n v="1972"/>
+    <n v="0.44219999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="176"/>
+    <n v="1121"/>
+    <n v="0.157"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="28"/>
+    <n v="48"/>
+    <n v="0.58330000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="273"/>
+    <n v="322"/>
+    <n v="0.8478"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="941"/>
+    <n v="7926"/>
+    <n v="0.1187"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="309"/>
+    <n v="1972"/>
+    <n v="0.15670000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="319"/>
+    <n v="1121"/>
+    <n v="0.28460000000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="48"/>
+    <n v="0.27079999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="263"/>
+    <n v="7926"/>
+    <n v="3.32E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="47"/>
+    <n v="1972"/>
+    <n v="2.3800000000000002E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="164"/>
+    <n v="1121"/>
+    <n v="0.14630000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="48"/>
+    <n v="2.0799999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="7926"/>
+    <n v="1.6000000000000001E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="1972"/>
+    <n v="2E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="42"/>
+    <n v="1121"/>
+    <n v="3.7499999999999999E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="48"/>
+    <n v="4.1700000000000001E-2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="202"/>
+    <n v="1121"/>
+    <n v="0.1802"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7BC0243-BEDA-41A9-B2EF-50CBB66F2D4A}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I3:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de perc" fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -364,8 +2784,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -378,17 +2804,17 @@
       <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="n">
-        <v>927.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2029.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4569</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>927</v>
+      </c>
+      <c r="F2">
+        <v>2029</v>
+      </c>
+      <c r="G2">
+        <v>0.45689999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -401,17 +2827,23 @@
       <c r="D3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3364</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>146</v>
+      </c>
+      <c r="F3">
+        <v>434</v>
+      </c>
+      <c r="G3">
+        <v>0.33639999999999998</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -424,17 +2856,29 @@
       <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.272</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>478</v>
+      </c>
+      <c r="G4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -447,17 +2891,29 @@
       <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2029.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0577</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>117</v>
+      </c>
+      <c r="F5">
+        <v>2029</v>
+      </c>
+      <c r="G5">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.1187</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.6699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -470,17 +2926,29 @@
       <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0691</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>434</v>
+      </c>
+      <c r="G6">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -493,17 +2961,27 @@
       <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.069</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>478</v>
+      </c>
+      <c r="G7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -516,17 +2994,29 @@
       <c r="D8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="n">
-        <v>723.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2029.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3563</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>723</v>
+      </c>
+      <c r="F8">
+        <v>2029</v>
+      </c>
+      <c r="G8">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -539,17 +3029,29 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9">
+        <v>177</v>
+      </c>
+      <c r="F9">
+        <v>434</v>
+      </c>
+      <c r="G9">
         <v>0.4078</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6.0900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -562,17 +3064,29 @@
       <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="E10" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>478</v>
+      </c>
+      <c r="G10">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -585,17 +3099,29 @@
       <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0909</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.0001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -608,17 +3134,17 @@
       <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="E12" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2029.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0991</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12">
+        <v>201</v>
+      </c>
+      <c r="F12">
+        <v>2029</v>
+      </c>
+      <c r="G12">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -631,17 +3157,17 @@
       <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>434</v>
+      </c>
+      <c r="G13">
         <v>0.1336</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -654,17 +3180,17 @@
       <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="E14" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3033</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="E14">
+        <v>145</v>
+      </c>
+      <c r="F14">
+        <v>478</v>
+      </c>
+      <c r="G14">
+        <v>0.30330000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -677,17 +3203,17 @@
       <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8727</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>0.87270000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -700,17 +3226,17 @@
       <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2029.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0301</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>2029</v>
+      </c>
+      <c r="G16">
+        <v>3.0099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -723,17 +3249,17 @@
       <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>434</v>
+      </c>
+      <c r="G17">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -746,17 +3272,17 @@
       <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>478</v>
+      </c>
+      <c r="G18">
         <v>0.2092</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -769,17 +3295,17 @@
       <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0364</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -792,17 +3318,17 @@
       <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E20" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>478.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0335</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>478</v>
+      </c>
+      <c r="G20">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -815,17 +3341,17 @@
       <c r="D21" t="s">
         <v>89</v>
       </c>
-      <c r="E21" t="n">
-        <v>3923.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="E21">
+        <v>3923</v>
+      </c>
+      <c r="F21">
+        <v>7646</v>
+      </c>
+      <c r="G21">
         <v>0.5131</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -838,17 +3364,17 @@
       <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" t="n">
-        <v>739.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22">
+        <v>739</v>
+      </c>
+      <c r="F22">
+        <v>1992</v>
+      </c>
+      <c r="G22">
         <v>0.371</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -861,17 +3387,17 @@
       <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0663</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>1449</v>
+      </c>
+      <c r="G23">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -884,17 +3410,17 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>334</v>
+      </c>
+      <c r="G24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -907,17 +3433,17 @@
       <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4179</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>67</v>
+      </c>
+      <c r="G25">
+        <v>0.41789999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -930,17 +3456,17 @@
       <c r="D26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="n">
-        <v>466.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0609</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="E26">
+        <v>466</v>
+      </c>
+      <c r="F26">
+        <v>7646</v>
+      </c>
+      <c r="G26">
+        <v>6.0900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -953,17 +3479,17 @@
       <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0517</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27">
+        <v>103</v>
+      </c>
+      <c r="F27">
+        <v>1992</v>
+      </c>
+      <c r="G27">
+        <v>5.1700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -976,17 +3502,17 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0145</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>1449</v>
+      </c>
+      <c r="G28">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -999,17 +3525,17 @@
       <c r="D29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>334</v>
+      </c>
+      <c r="G29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1022,17 +3548,17 @@
       <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="E30" t="n">
-        <v>2309.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.302</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30">
+        <v>2309</v>
+      </c>
+      <c r="F30">
+        <v>7646</v>
+      </c>
+      <c r="G30">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1045,17 +3571,17 @@
       <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="E31" t="n">
-        <v>782.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="E31">
+        <v>782</v>
+      </c>
+      <c r="F31">
+        <v>1992</v>
+      </c>
+      <c r="G31">
         <v>0.3926</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1068,17 +3594,17 @@
       <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="E32" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="E32">
+        <v>198</v>
+      </c>
+      <c r="F32">
+        <v>1449</v>
+      </c>
+      <c r="G32">
         <v>0.1366</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1091,17 +3617,17 @@
       <c r="D33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2904</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="E33">
+        <v>97</v>
+      </c>
+      <c r="F33">
+        <v>334</v>
+      </c>
+      <c r="G33">
+        <v>0.29039999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1114,17 +3640,17 @@
       <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="E34" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.5821</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <v>67</v>
+      </c>
+      <c r="G34">
+        <v>0.58209999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1137,17 +3663,17 @@
       <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="E35" t="n">
-        <v>739.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.0967</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="E35">
+        <v>739</v>
+      </c>
+      <c r="F35">
+        <v>7646</v>
+      </c>
+      <c r="G35">
+        <v>9.6699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1160,17 +3686,17 @@
       <c r="D36" t="s">
         <v>90</v>
       </c>
-      <c r="E36" t="n">
-        <v>265.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.133</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="E36">
+        <v>265</v>
+      </c>
+      <c r="F36">
+        <v>1992</v>
+      </c>
+      <c r="G36">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1183,17 +3709,17 @@
       <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="E37" t="n">
-        <v>379.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="E37">
+        <v>379</v>
+      </c>
+      <c r="F37">
+        <v>1449</v>
+      </c>
+      <c r="G37">
         <v>0.2616</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1206,17 +3732,17 @@
       <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" t="n">
-        <v>223.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6677</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="E38">
+        <v>223</v>
+      </c>
+      <c r="F38">
+        <v>334</v>
+      </c>
+      <c r="G38">
+        <v>0.66769999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1229,17 +3755,17 @@
       <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="E39" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.0259</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="E39">
+        <v>198</v>
+      </c>
+      <c r="F39">
+        <v>7646</v>
+      </c>
+      <c r="G39">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1252,17 +3778,17 @@
       <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="E40" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0507</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40">
+        <v>101</v>
+      </c>
+      <c r="F40">
+        <v>1992</v>
+      </c>
+      <c r="G40">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1275,17 +3801,17 @@
       <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="E41" t="n">
-        <v>393.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="E41">
+        <v>393</v>
+      </c>
+      <c r="F41">
+        <v>1449</v>
+      </c>
+      <c r="G41">
         <v>0.2712</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1298,17 +3824,17 @@
       <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>334</v>
+      </c>
+      <c r="G42">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1321,17 +3847,17 @@
       <c r="D43" t="s">
         <v>89</v>
       </c>
-      <c r="E43" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7646.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.0014</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>7646</v>
+      </c>
+      <c r="G43">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1344,17 +3870,17 @@
       <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="E44" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1992</v>
+      </c>
+      <c r="G44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1367,17 +3893,17 @@
       <c r="D45" t="s">
         <v>91</v>
       </c>
-      <c r="E45" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0304</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>1449</v>
+      </c>
+      <c r="G45">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1390,17 +3916,17 @@
       <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="E46" t="n">
-        <v>318.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1449.0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="E46">
+        <v>318</v>
+      </c>
+      <c r="F46">
+        <v>1449</v>
+      </c>
+      <c r="G46">
         <v>0.2195</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1413,17 +3939,17 @@
       <c r="D47" t="s">
         <v>92</v>
       </c>
-      <c r="E47" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>334.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>334</v>
+      </c>
+      <c r="G47">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1436,17 +3962,17 @@
       <c r="D48" t="s">
         <v>89</v>
       </c>
-      <c r="E48" t="n">
-        <v>3481.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.4392</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="E48">
+        <v>3481</v>
+      </c>
+      <c r="F48">
+        <v>7926</v>
+      </c>
+      <c r="G48">
+        <v>0.43919999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1459,17 +3985,17 @@
       <c r="D49" t="s">
         <v>90</v>
       </c>
-      <c r="E49" t="n">
-        <v>636.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.3225</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="E49">
+        <v>636</v>
+      </c>
+      <c r="F49">
+        <v>1972</v>
+      </c>
+      <c r="G49">
+        <v>0.32250000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1482,17 +4008,17 @@
       <c r="D50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.1267</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="E50">
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>1121</v>
+      </c>
+      <c r="G50">
+        <v>0.12670000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1505,17 +4031,17 @@
       <c r="D51" t="s">
         <v>93</v>
       </c>
-      <c r="E51" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>322.0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51">
+        <v>322</v>
+      </c>
+      <c r="G51">
         <v>0.1522</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1528,17 +4054,17 @@
       <c r="D52" t="s">
         <v>89</v>
       </c>
-      <c r="E52" t="n">
-        <v>465.0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.0587</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="E52">
+        <v>465</v>
+      </c>
+      <c r="F52">
+        <v>7926</v>
+      </c>
+      <c r="G52">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1551,17 +4077,17 @@
       <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="E53" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.0527</v>
-      </c>
-    </row>
-    <row r="54">
+      <c r="E53">
+        <v>104</v>
+      </c>
+      <c r="F53">
+        <v>1972</v>
+      </c>
+      <c r="G53">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1574,17 +4100,17 @@
       <c r="D54" t="s">
         <v>91</v>
       </c>
-      <c r="E54" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.0678</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="E54">
+        <v>76</v>
+      </c>
+      <c r="F54">
+        <v>1121</v>
+      </c>
+      <c r="G54">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1597,17 +4123,17 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-      <c r="E55" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.0833</v>
-      </c>
-    </row>
-    <row r="56">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>48</v>
+      </c>
+      <c r="G55">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1620,17 +4146,17 @@
       <c r="D56" t="s">
         <v>89</v>
       </c>
-      <c r="E56" t="n">
-        <v>2763.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.3486</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="E56">
+        <v>2763</v>
+      </c>
+      <c r="F56">
+        <v>7926</v>
+      </c>
+      <c r="G56">
+        <v>0.34860000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1643,17 +4169,17 @@
       <c r="D57" t="s">
         <v>90</v>
       </c>
-      <c r="E57" t="n">
-        <v>872.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.4422</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="E57">
+        <v>872</v>
+      </c>
+      <c r="F57">
+        <v>1972</v>
+      </c>
+      <c r="G57">
+        <v>0.44219999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1666,17 +4192,17 @@
       <c r="D58" t="s">
         <v>91</v>
       </c>
-      <c r="E58" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="E58">
+        <v>176</v>
+      </c>
+      <c r="F58">
+        <v>1121</v>
+      </c>
+      <c r="G58">
         <v>0.157</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1689,17 +4215,17 @@
       <c r="D59" t="s">
         <v>92</v>
       </c>
-      <c r="E59" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.5833</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="E59">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>0.58330000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1712,17 +4238,17 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
-      <c r="E60" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>322.0</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="E60">
+        <v>273</v>
+      </c>
+      <c r="F60">
+        <v>322</v>
+      </c>
+      <c r="G60">
         <v>0.8478</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1735,17 +4261,17 @@
       <c r="D61" t="s">
         <v>89</v>
       </c>
-      <c r="E61" t="n">
-        <v>941.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="E61">
+        <v>941</v>
+      </c>
+      <c r="F61">
+        <v>7926</v>
+      </c>
+      <c r="G61">
         <v>0.1187</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1758,17 +4284,17 @@
       <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="E62" t="n">
-        <v>309.0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.1567</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="E62">
+        <v>309</v>
+      </c>
+      <c r="F62">
+        <v>1972</v>
+      </c>
+      <c r="G62">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1781,17 +4307,17 @@
       <c r="D63" t="s">
         <v>91</v>
       </c>
-      <c r="E63" t="n">
-        <v>319.0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.2846</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="E63">
+        <v>319</v>
+      </c>
+      <c r="F63">
+        <v>1121</v>
+      </c>
+      <c r="G63">
+        <v>0.28460000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1804,17 +4330,17 @@
       <c r="D64" t="s">
         <v>92</v>
       </c>
-      <c r="E64" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.2708</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="E64">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <v>48</v>
+      </c>
+      <c r="G64">
+        <v>0.27079999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1827,17 +4353,17 @@
       <c r="D65" t="s">
         <v>89</v>
       </c>
-      <c r="E65" t="n">
-        <v>263.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.0332</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="E65">
+        <v>263</v>
+      </c>
+      <c r="F65">
+        <v>7926</v>
+      </c>
+      <c r="G65">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1850,17 +4376,17 @@
       <c r="D66" t="s">
         <v>90</v>
       </c>
-      <c r="E66" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.0238</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="E66">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>1972</v>
+      </c>
+      <c r="G66">
+        <v>2.3800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1873,17 +4399,17 @@
       <c r="D67" t="s">
         <v>91</v>
       </c>
-      <c r="E67" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.1463</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="E67">
+        <v>164</v>
+      </c>
+      <c r="F67">
+        <v>1121</v>
+      </c>
+      <c r="G67">
+        <v>0.14630000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1896,17 +4422,17 @@
       <c r="D68" t="s">
         <v>92</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.0208</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>48</v>
+      </c>
+      <c r="G68">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1919,17 +4445,17 @@
       <c r="D69" t="s">
         <v>89</v>
       </c>
-      <c r="E69" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>7926.0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.0016</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>7926</v>
+      </c>
+      <c r="G69">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1942,17 +4468,17 @@
       <c r="D70" t="s">
         <v>90</v>
       </c>
-      <c r="E70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1972.0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>1972</v>
+      </c>
+      <c r="G70">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1965,17 +4491,17 @@
       <c r="D71" t="s">
         <v>91</v>
       </c>
-      <c r="E71" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.0375</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="E71">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>1121</v>
+      </c>
+      <c r="G71">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1988,17 +4514,17 @@
       <c r="D72" t="s">
         <v>92</v>
       </c>
-      <c r="E72" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>48</v>
+      </c>
+      <c r="G72">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2011,17 +4537,18 @@
       <c r="D73" t="s">
         <v>91</v>
       </c>
-      <c r="E73" t="n">
-        <v>202.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1121.0</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="E73">
+        <v>202</v>
+      </c>
+      <c r="F73">
+        <v>1121</v>
+      </c>
+      <c r="G73">
         <v>0.1802</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>